--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ngf</t>
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H2">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I2">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J2">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N2">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O2">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P2">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q2">
-        <v>2.191960913977556</v>
+        <v>0.1394938872633333</v>
       </c>
       <c r="R2">
-        <v>19.72764822579801</v>
+        <v>1.25544498537</v>
       </c>
       <c r="S2">
-        <v>0.03226991927318089</v>
+        <v>0.001601650212753501</v>
       </c>
       <c r="T2">
-        <v>0.03226991927318089</v>
+        <v>0.0016016502127535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H3">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I3">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J3">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P3">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q3">
-        <v>1.178388555064556</v>
+        <v>0.4418060671633333</v>
       </c>
       <c r="R3">
-        <v>10.605496995581</v>
+        <v>3.976254604469999</v>
       </c>
       <c r="S3">
-        <v>0.01734816679526013</v>
+        <v>0.005072758350565669</v>
       </c>
       <c r="T3">
-        <v>0.01734816679526013</v>
+        <v>0.005072758350565668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H4">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I4">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J4">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N4">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O4">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P4">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q4">
-        <v>5.434169150489335</v>
+        <v>2.78611166905</v>
       </c>
       <c r="R4">
-        <v>48.90752235440401</v>
+        <v>25.07500502145</v>
       </c>
       <c r="S4">
-        <v>0.0800015176752811</v>
+        <v>0.03198976267013746</v>
       </c>
       <c r="T4">
-        <v>0.0800015176752811</v>
+        <v>0.03198976267013744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H5">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I5">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J5">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N5">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O5">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P5">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q5">
-        <v>3.362848578938444</v>
+        <v>0.8260143977066666</v>
       </c>
       <c r="R5">
-        <v>30.265637210446</v>
+        <v>7.43412957936</v>
       </c>
       <c r="S5">
-        <v>0.04950765840680763</v>
+        <v>0.009484187169627258</v>
       </c>
       <c r="T5">
-        <v>0.04950765840680763</v>
+        <v>0.009484187169627258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H6">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I6">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J6">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N6">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O6">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P6">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q6">
-        <v>10.04493082244356</v>
+        <v>0.3720591736278889</v>
       </c>
       <c r="R6">
-        <v>90.40437740199201</v>
+        <v>3.348532562651</v>
       </c>
       <c r="S6">
-        <v>0.147880879023858</v>
+        <v>0.004271933819387063</v>
       </c>
       <c r="T6">
-        <v>0.147880879023858</v>
+        <v>0.004271933819387062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H7">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I7">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J7">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P7">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q7">
-        <v>5.400110668991556</v>
+        <v>1.178388555064555</v>
       </c>
       <c r="R7">
-        <v>48.600996020924</v>
+        <v>10.605496995581</v>
       </c>
       <c r="S7">
-        <v>0.07950011071975924</v>
+        <v>0.0135301002570995</v>
       </c>
       <c r="T7">
-        <v>0.07950011071975922</v>
+        <v>0.0135301002570995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,14 +894,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H8">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I8">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J8">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N8">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O8">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P8">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q8">
-        <v>24.90274933555733</v>
+        <v>7.431138564981667</v>
       </c>
       <c r="R8">
-        <v>224.124744020016</v>
+        <v>66.88024708483501</v>
       </c>
       <c r="S8">
-        <v>0.3666168067205429</v>
+        <v>0.08532334209838995</v>
       </c>
       <c r="T8">
-        <v>0.3666168067205429</v>
+        <v>0.08532334209838993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7246536666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.173961</v>
+      </c>
+      <c r="I9">
+        <v>0.1284216734542145</v>
+      </c>
+      <c r="J9">
+        <v>0.1284216734542145</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.040282666666667</v>
+      </c>
+      <c r="N9">
+        <v>9.120848000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1969784118126819</v>
+      </c>
+      <c r="P9">
+        <v>0.1969784118126819</v>
+      </c>
+      <c r="Q9">
+        <v>2.203151982103111</v>
+      </c>
+      <c r="R9">
+        <v>19.828367838928</v>
+      </c>
+      <c r="S9">
+        <v>0.02529629727933803</v>
+      </c>
+      <c r="T9">
+        <v>0.02529629727933803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H10">
+        <v>13.92532</v>
+      </c>
+      <c r="I10">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J10">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5134303333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.540291</v>
+      </c>
+      <c r="O10">
+        <v>0.03326489761800302</v>
+      </c>
+      <c r="P10">
+        <v>0.03326489761800301</v>
+      </c>
+      <c r="Q10">
+        <v>2.383227229791111</v>
+      </c>
+      <c r="R10">
+        <v>21.44904506812</v>
+      </c>
+      <c r="S10">
+        <v>0.02736389726116846</v>
+      </c>
+      <c r="T10">
+        <v>0.02736389726116845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H11">
+        <v>13.92532</v>
+      </c>
+      <c r="I11">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J11">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.626140333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.878420999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1053568287437347</v>
+      </c>
+      <c r="P11">
+        <v>0.1053568287437347</v>
+      </c>
+      <c r="Q11">
+        <v>7.548174835524443</v>
+      </c>
+      <c r="R11">
+        <v>67.93357351971999</v>
+      </c>
+      <c r="S11">
+        <v>0.08666713695056757</v>
+      </c>
+      <c r="T11">
+        <v>0.08666713695056756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H12">
+        <v>13.92532</v>
+      </c>
+      <c r="I12">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J12">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.254745</v>
+      </c>
+      <c r="N12">
+        <v>30.764235</v>
+      </c>
+      <c r="O12">
+        <v>0.6643998618255804</v>
+      </c>
+      <c r="P12">
+        <v>0.6643998618255803</v>
+      </c>
+      <c r="Q12">
+        <v>47.60020188113333</v>
+      </c>
+      <c r="R12">
+        <v>428.4018169302</v>
+      </c>
+      <c r="S12">
+        <v>0.5465391707530869</v>
+      </c>
+      <c r="T12">
+        <v>0.5465391707530867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H13">
+        <v>13.92532</v>
+      </c>
+      <c r="I13">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J13">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.040282666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.120848000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1969784118126819</v>
+      </c>
+      <c r="P13">
+        <v>0.1969784118126819</v>
+      </c>
+      <c r="Q13">
+        <v>14.11230300792889</v>
+      </c>
+      <c r="R13">
+        <v>127.01072707136</v>
+      </c>
+      <c r="S13">
+        <v>0.162035581332835</v>
+      </c>
+      <c r="T13">
+        <v>0.162035581332835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.320814666666667</v>
-      </c>
-      <c r="H9">
-        <v>9.962444</v>
-      </c>
-      <c r="I9">
-        <v>0.8208727378494701</v>
-      </c>
-      <c r="J9">
-        <v>0.8208727378494702</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.640628666666666</v>
-      </c>
-      <c r="N9">
-        <v>13.921886</v>
-      </c>
-      <c r="O9">
-        <v>0.2763825997921178</v>
-      </c>
-      <c r="P9">
-        <v>0.2763825997921177</v>
-      </c>
-      <c r="Q9">
-        <v>15.41066773882044</v>
-      </c>
-      <c r="R9">
-        <v>138.696009649384</v>
-      </c>
-      <c r="S9">
-        <v>0.2268749413853101</v>
-      </c>
-      <c r="T9">
-        <v>0.2268749413853101</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.013952</v>
+      </c>
+      <c r="I14">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J14">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5134303333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.540291</v>
+      </c>
+      <c r="O14">
+        <v>0.03326489761800302</v>
+      </c>
+      <c r="P14">
+        <v>0.03326489761800301</v>
+      </c>
+      <c r="Q14">
+        <v>0.002387793336888889</v>
+      </c>
+      <c r="R14">
+        <v>0.021490140032</v>
+      </c>
+      <c r="S14">
+        <v>2.741632469399787E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.741632469399786E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.013952</v>
+      </c>
+      <c r="I15">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J15">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.626140333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.878420999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1053568287437347</v>
+      </c>
+      <c r="P15">
+        <v>0.1053568287437347</v>
+      </c>
+      <c r="Q15">
+        <v>0.007562636643555555</v>
+      </c>
+      <c r="R15">
+        <v>0.068063729792</v>
+      </c>
+      <c r="S15">
+        <v>8.683318550197187E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.683318550197187E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.013952</v>
+      </c>
+      <c r="I16">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J16">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.254745</v>
+      </c>
+      <c r="N16">
+        <v>30.764235</v>
+      </c>
+      <c r="O16">
+        <v>0.6643998618255804</v>
+      </c>
+      <c r="P16">
+        <v>0.6643998618255803</v>
+      </c>
+      <c r="Q16">
+        <v>0.04769140074666667</v>
+      </c>
+      <c r="R16">
+        <v>0.42922260672</v>
+      </c>
+      <c r="S16">
+        <v>0.0005475863039662333</v>
+      </c>
+      <c r="T16">
+        <v>0.0005475863039662332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.013952</v>
+      </c>
+      <c r="I17">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J17">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.040282666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.120848000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1969784118126819</v>
+      </c>
+      <c r="P17">
+        <v>0.1969784118126819</v>
+      </c>
+      <c r="Q17">
+        <v>0.01413934125511111</v>
+      </c>
+      <c r="R17">
+        <v>0.127254071296</v>
+      </c>
+      <c r="S17">
+        <v>0.0001623460308815679</v>
+      </c>
+      <c r="T17">
+        <v>0.0001623460308815679</v>
       </c>
     </row>
   </sheetData>
